--- a/teams.xlsx
+++ b/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\Tourpool-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE0B30-CF27-42C8-871A-71F266F9D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B18415-044F-4FFD-826D-2BCF73C7DF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{08DB53F7-1C8F-4A5D-824E-7DCC7FCE8E8A}"/>
   </bookViews>
@@ -39,226 +39,226 @@
     <t>Mathijs</t>
   </si>
   <si>
-    <t>Mathieu van der Poel (NED)</t>
-  </si>
-  <si>
-    <t>Jasper Philipsen (BEL)</t>
-  </si>
-  <si>
-    <t>Arnaud Démare (FRA)</t>
-  </si>
-  <si>
-    <t>Phil Bauhaus (GER)</t>
-  </si>
-  <si>
-    <t>Lenny Martinez (FRA)</t>
-  </si>
-  <si>
-    <t>Bryan Coquard (FRA)</t>
-  </si>
-  <si>
-    <t>Felix Gall (AUT)</t>
-  </si>
-  <si>
-    <t>Filippo Ganna (ITA)</t>
-  </si>
-  <si>
-    <t>Carlos Rodriguez (ESP)</t>
-  </si>
-  <si>
-    <t>Biniam Girmay (ERI)</t>
-  </si>
-  <si>
-    <t>Jonathan Milan (ITA)</t>
-  </si>
-  <si>
-    <t>Arnaud De Lie (BEL)</t>
-  </si>
-  <si>
-    <t>Enric Mas (ESP)</t>
-  </si>
-  <si>
-    <t>Florian Lipowitz (GER)</t>
-  </si>
-  <si>
-    <t>Jordi Meeus (BEL)</t>
-  </si>
-  <si>
-    <t>Primož Roglič (SLO)</t>
-  </si>
-  <si>
-    <t>Remco Evenepoel (BEL)</t>
-  </si>
-  <si>
-    <t>Tim Merlier (BEL)</t>
-  </si>
-  <si>
-    <t>Dylan Groenewegen (NED)</t>
-  </si>
-  <si>
-    <t>Ben O’Connor (AUS)</t>
-  </si>
-  <si>
-    <t>Tobias Lund Andresen (DEN)</t>
-  </si>
-  <si>
-    <t>Wout Van Aert (BEL)</t>
-  </si>
-  <si>
-    <t>Jonas Vingegaard (DEN)</t>
-  </si>
-  <si>
-    <t>João Almeida (POR)</t>
-  </si>
-  <si>
-    <t>Tadej Pogačar (SLO)</t>
-  </si>
-  <si>
     <t>Nico</t>
   </si>
   <si>
-    <t>Kévin Vauquelin (FRA)</t>
-  </si>
-  <si>
-    <t>Harry Sweeny (AUS)</t>
-  </si>
-  <si>
-    <t>Romain Grégoire (FRA)</t>
-  </si>
-  <si>
-    <t>Geraint Thomas (GBR)</t>
-  </si>
-  <si>
-    <t>Georg Zimmermann (GER)</t>
-  </si>
-  <si>
-    <t>Pascal Ackermann (GER)</t>
-  </si>
-  <si>
-    <t>Einer Rubio (COL)</t>
-  </si>
-  <si>
-    <t>Danny Van Poppel (NED)</t>
-  </si>
-  <si>
-    <t>Mattia Cattaneo (ITA)</t>
-  </si>
-  <si>
-    <t>Julian Alaphilippe (FRA)</t>
-  </si>
-  <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>Jack Haig (AUS)</t>
-  </si>
-  <si>
-    <t>Marijn van den Berg (NED)</t>
-  </si>
-  <si>
-    <t>Louis Barré (FRA)</t>
-  </si>
-  <si>
-    <t>Warren Barguil (FRA)</t>
-  </si>
-  <si>
-    <t>Marc Hirschi (FRA)</t>
-  </si>
-  <si>
-    <t>Tim Wellens (BEL)</t>
-  </si>
-  <si>
-    <t>Adam Yates (GBR)</t>
-  </si>
-  <si>
-    <t>Cees Bol (NED)</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
-    <t>Mattias Skjelmose (NED)</t>
-  </si>
-  <si>
-    <t>Oscar Onley (GBR)</t>
-  </si>
-  <si>
-    <t>Tobias Halland Johannessen (NOR)</t>
-  </si>
-  <si>
     <t>Tessa</t>
   </si>
   <si>
-    <t>Fred Wright (GBR)</t>
-  </si>
-  <si>
-    <t>Neilson Powless (USA)</t>
-  </si>
-  <si>
-    <t>Thymen Arensman (NED)</t>
-  </si>
-  <si>
     <t>quinn simmons</t>
   </si>
   <si>
-    <t>Aleksandr Vlasov (RUS)</t>
-  </si>
-  <si>
-    <t>Matteo Jorgenson (USA)</t>
-  </si>
-  <si>
-    <t>Sepp Kuss (USA)</t>
-  </si>
-  <si>
-    <t>Marc Soler (ESP)</t>
-  </si>
-  <si>
     <t>Petra</t>
   </si>
   <si>
-    <t>Santiago Buitrago (COL)</t>
-  </si>
-  <si>
-    <t>Bert Van Lerberghe (BEL)</t>
-  </si>
-  <si>
-    <t>Émilien Jeannière (FRA)</t>
-  </si>
-  <si>
-    <t>Magnus Cort (DEN)</t>
-  </si>
-  <si>
-    <t>Clément Champoussin (FRA)</t>
-  </si>
-  <si>
     <t>Piet</t>
   </si>
   <si>
-    <t>Thibau Nys (BEL)</t>
-  </si>
-  <si>
-    <t>Simon Yates (GBR)</t>
-  </si>
-  <si>
     <t>Annelotte</t>
   </si>
   <si>
-    <t>Matej Mohorič (SLO)</t>
-  </si>
-  <si>
-    <t>Ion Izaguirre (ESP)</t>
-  </si>
-  <si>
-    <t>Ben Healy (IRL)</t>
-  </si>
-  <si>
-    <t>Lennert Van Eetvelt (BEL)</t>
-  </si>
-  <si>
     <t>naam</t>
   </si>
   <si>
     <t>renner</t>
+  </si>
+  <si>
+    <t>Mathieu van der Poel</t>
+  </si>
+  <si>
+    <t>Jasper Philipsen</t>
+  </si>
+  <si>
+    <t>Arnaud Démare</t>
+  </si>
+  <si>
+    <t>Phil Bauhaus</t>
+  </si>
+  <si>
+    <t>Lenny Martinez</t>
+  </si>
+  <si>
+    <t>Bryan Coquard</t>
+  </si>
+  <si>
+    <t>Felix Gall</t>
+  </si>
+  <si>
+    <t>Filippo Ganna</t>
+  </si>
+  <si>
+    <t>Carlos Rodriguez</t>
+  </si>
+  <si>
+    <t>Biniam Girmay</t>
+  </si>
+  <si>
+    <t>Jonathan Milan</t>
+  </si>
+  <si>
+    <t>Arnaud De Lie</t>
+  </si>
+  <si>
+    <t>Enric Mas</t>
+  </si>
+  <si>
+    <t>Florian Lipowitz</t>
+  </si>
+  <si>
+    <t>Jordi Meeus</t>
+  </si>
+  <si>
+    <t>Primož Roglič</t>
+  </si>
+  <si>
+    <t>Remco Evenepoel</t>
+  </si>
+  <si>
+    <t>Tim Merlier</t>
+  </si>
+  <si>
+    <t>Dylan Groenewegen</t>
+  </si>
+  <si>
+    <t>Ben O’Connor</t>
+  </si>
+  <si>
+    <t>Tobias Lund Andresen</t>
+  </si>
+  <si>
+    <t>Wout Van Aert</t>
+  </si>
+  <si>
+    <t>Jonas Vingegaard</t>
+  </si>
+  <si>
+    <t>João Almeida</t>
+  </si>
+  <si>
+    <t>Tadej Pogačar</t>
+  </si>
+  <si>
+    <t>Kévin Vauquelin</t>
+  </si>
+  <si>
+    <t>Harry Sweeny</t>
+  </si>
+  <si>
+    <t>Romain Grégoire</t>
+  </si>
+  <si>
+    <t>Geraint Thomas</t>
+  </si>
+  <si>
+    <t>Georg Zimmermann</t>
+  </si>
+  <si>
+    <t>Pascal Ackermann</t>
+  </si>
+  <si>
+    <t>Einer Rubio</t>
+  </si>
+  <si>
+    <t>Danny Van Poppel</t>
+  </si>
+  <si>
+    <t>Mattia Cattaneo</t>
+  </si>
+  <si>
+    <t>Julian Alaphilippe</t>
+  </si>
+  <si>
+    <t>Jack Haig</t>
+  </si>
+  <si>
+    <t>Marijn van den Berg</t>
+  </si>
+  <si>
+    <t>Louis Barré</t>
+  </si>
+  <si>
+    <t>Warren Barguil</t>
+  </si>
+  <si>
+    <t>Marc Hirschi</t>
+  </si>
+  <si>
+    <t>Tim Wellens</t>
+  </si>
+  <si>
+    <t>Adam Yates</t>
+  </si>
+  <si>
+    <t>Cees Bol</t>
+  </si>
+  <si>
+    <t>Mattias Skjelmose</t>
+  </si>
+  <si>
+    <t>Oscar Onley</t>
+  </si>
+  <si>
+    <t>Tobias Halland Johannessen</t>
+  </si>
+  <si>
+    <t>Fred Wright</t>
+  </si>
+  <si>
+    <t>Neilson Powless</t>
+  </si>
+  <si>
+    <t>Thymen Arensman</t>
+  </si>
+  <si>
+    <t>Aleksandr Vlasov</t>
+  </si>
+  <si>
+    <t>Matteo Jorgenson</t>
+  </si>
+  <si>
+    <t>Sepp Kuss</t>
+  </si>
+  <si>
+    <t>Marc Soler</t>
+  </si>
+  <si>
+    <t>Santiago Buitrago</t>
+  </si>
+  <si>
+    <t>Bert Van Lerberghe</t>
+  </si>
+  <si>
+    <t>Émilien Jeannière</t>
+  </si>
+  <si>
+    <t>Magnus Cort</t>
+  </si>
+  <si>
+    <t>Clément Champoussin</t>
+  </si>
+  <si>
+    <t>Thibau Nys</t>
+  </si>
+  <si>
+    <t>Simon Yates</t>
+  </si>
+  <si>
+    <t>Matej Mohorič</t>
+  </si>
+  <si>
+    <t>Ion Izaguirre</t>
+  </si>
+  <si>
+    <t>Ben Healy</t>
+  </si>
+  <si>
+    <t>Lennert Van Eetvelt</t>
   </si>
 </sst>
 </file>
@@ -620,20 +620,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581E2161-0C05-4EA7-9A57-8DD9468C7EA1}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -649,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -689,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -697,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -745,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,1407 +836,1408 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
         <v>68</v>
-      </c>
-      <c r="B201" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\Tourpool-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B18415-044F-4FFD-826D-2BCF73C7DF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2EAC2-9284-43C5-91BA-465115499B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{08DB53F7-1C8F-4A5D-824E-7DCC7FCE8E8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="81">
   <si>
     <t>Mathijs</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>Lennert Van Eetvelt</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Aurélien Paret-Peintre</t>
+  </si>
+  <si>
+    <t>Guillaume Martin-Guyonnet</t>
+  </si>
+  <si>
+    <t>Tobias Foss</t>
+  </si>
+  <si>
+    <t>Michael Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Campenaerts </t>
   </si>
 </sst>
 </file>
@@ -620,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581E2161-0C05-4EA7-9A57-8DD9468C7EA1}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,6 +2258,206 @@
         <v>68</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>75</v>
+      </c>
+      <c r="B210" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>75</v>
+      </c>
+      <c r="B212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>75</v>
+      </c>
+      <c r="B213" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>75</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>75</v>
+      </c>
+      <c r="B215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>75</v>
+      </c>
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>75</v>
+      </c>
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>75</v>
+      </c>
+      <c r="B220" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>75</v>
+      </c>
+      <c r="B221" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>75</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>75</v>
+      </c>
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>75</v>
+      </c>
+      <c r="B224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>75</v>
+      </c>
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
